--- a/seraque/assets/gabarito.xlsx
+++ b/seraque/assets/gabarito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiago\workspace\gp\seraque\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcruz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7468C-D96C-4DF5-AF63-B034911E6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20C00C-2C7D-49C4-AECC-C4D5340ADD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Pergunta</t>
   </si>
@@ -28,28 +28,73 @@
     <t>Onix</t>
   </si>
   <si>
-    <t>Tracker</t>
-  </si>
-  <si>
-    <t>Cruze</t>
-  </si>
-  <si>
-    <t>Equinox</t>
-  </si>
-  <si>
-    <t>Tem ar-condicionado?</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Sensor estacionamento?</t>
-  </si>
-  <si>
-    <t>Motor turbo?</t>
-  </si>
-  <si>
-    <t>Pergunta nova?</t>
+    <t>HB20S</t>
+  </si>
+  <si>
+    <t>Virtus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerta de Ponto Cego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensores de estacionamento (dianteiro, lateral e traseiro) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alerta de frenagem de emergência (ESS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de frenagem automática pós colisão "Post Collision Brake". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alerta de colisão frontal e frenagem automática </t>
+  </si>
+  <si>
+    <t>Assistente de permanência em faixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farol alto adaptativo </t>
+  </si>
+  <si>
+    <t>Alerta de tráfego cruzado traseiro</t>
+  </si>
+  <si>
+    <t>6 airbags</t>
+  </si>
+  <si>
+    <t>Sensor crepuscular</t>
+  </si>
+  <si>
+    <t>Alerta de abertura de porta (Alerta de saída segura)</t>
+  </si>
+  <si>
+    <t>Easy Park - Assistente de estacionamento automático</t>
+  </si>
+  <si>
+    <t>Retrovisores externos com rebatimento elétrico</t>
+  </si>
+  <si>
+    <t>Paddle Shift</t>
+  </si>
+  <si>
+    <t>Sistema Stop/Start</t>
+  </si>
+  <si>
+    <t>Multimidia de 11”</t>
+  </si>
+  <si>
+    <t>OnStar</t>
+  </si>
+  <si>
+    <t>Wi-Fi embarcado</t>
+  </si>
+  <si>
+    <t>Projeção (Android Auto e Apple CarPlay) sem o uso de cabo</t>
+  </si>
+  <si>
+    <t>Painel de instrumentos digital de 10.25</t>
   </si>
 </sst>
 </file>
@@ -413,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +469,7 @@
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,60 +477,203 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/seraque/assets/gabarito.xlsx
+++ b/seraque/assets/gabarito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcruz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CA3BC-47EC-40AC-89BF-C1B37D410453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD51888-CF4C-4269-B92B-FD22D6A3E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Pergunta</t>
   </si>
@@ -461,15 +461,15 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,15 +483,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -513,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -521,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -532,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -540,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -548,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -556,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -570,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -584,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -592,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -600,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -611,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -622,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -633,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -641,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -649,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -657,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -671,9 +674,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -682,4 +688,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FFAF22EAB8F3234FA534DC862D6C8FA3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7d8af29605171d78a37e78dd870b88aa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06ef47f8-e7c9-4a10-9df8-024ecd6a4893" xmlns:ns3="50610a4a-12b5-4f2b-a412-1c014237941d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54634013359574ae2bc2f52d64e1241c" ns2:_="" ns3:_="">
+    <xsd:import namespace="06ef47f8-e7c9-4a10-9df8-024ecd6a4893"/>
+    <xsd:import namespace="50610a4a-12b5-4f2b-a412-1c014237941d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="06ef47f8-e7c9-4a10-9df8-024ecd6a4893" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4b9225c0-26e8-48b9-9141-9676b83e14a6" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="50610a4a-12b5-4f2b-a412-1c014237941d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{95aa4640-ed0b-4234-9ac2-ca2f664fd2d9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="50610a4a-12b5-4f2b-a412-1c014237941d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="06ef47f8-e7c9-4a10-9df8-024ecd6a4893">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="50610a4a-12b5-4f2b-a412-1c014237941d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D653BA-E0CB-4B27-A695-491B55B3280C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51EC9421-05AF-4E78-8D77-DD92041F4432}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA95FAE5-BB0A-400E-B481-1E075E680E4C}"/>
 </file>